--- a/exports/top_10_products.xlsx
+++ b/exports/top_10_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misnm\omnicart-analytics\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881679D4-15C1-4863-9FD6-54C3565BAC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B3728-88DC-4836-ACB4-11636F999082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{380452EC-7F9E-44F2-98C1-FC98C98590A7}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -610,12 +610,9 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -623,6 +620,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -671,36 +671,6 @@
   <dxfs count="13">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -725,76 +695,18 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="18"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -833,7 +745,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -848,6 +785,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -885,7 +885,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -900,6 +899,7 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -946,23 +946,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-IN"/>
               <a:t>top 10% of products ≈ 60% of revenue</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -979,19 +983,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1277,13 +1286,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1336,13 +1350,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1379,13 +1398,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1410,6 +1434,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1142656383"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1438,13 +1463,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1485,7 +1515,19 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0" cap="none" spc="0">
+          <a:ln w="0"/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="dk1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2083,7 +2125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE2EF99-B65D-4F73-B65F-10A3E60027B1}" name="Table1" displayName="Table1" ref="A4:E15" totalsRowCount="1" headerRowDxfId="11" dataDxfId="12" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE2EF99-B65D-4F73-B65F-10A3E60027B1}" name="Table1" displayName="Table1" ref="A4:E15" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <autoFilter ref="A4:E14" xr:uid="{8FE2EF99-B65D-4F73-B65F-10A3E60027B1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2092,13 +2134,13 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{964B52FD-B137-4C16-AFFD-A805338DCE41}" name="product_id" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6EF518CA-B135-4A3B-B1CF-43232E78191F}" name="category" dataDxfId="8" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CA51D113-20AB-4D88-ADB1-519455DD85AE}" name="revenue" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0E2779B8-FC58-49F3-8340-C55EE58F87BD}" name="Cumulative Revenue" dataDxfId="1" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{964B52FD-B137-4C16-AFFD-A805338DCE41}" name="product_id" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6EF518CA-B135-4A3B-B1CF-43232E78191F}" name="category" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CA51D113-20AB-4D88-ADB1-519455DD85AE}" name="revenue" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0E2779B8-FC58-49F3-8340-C55EE58F87BD}" name="Cumulative Revenue" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM($C$5:C5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{052C248E-3FE8-43BA-AFAC-E1FD8621F5EF}" name="Cumulative %" dataDxfId="0" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{052C248E-3FE8-43BA-AFAC-E1FD8621F5EF}" name="Cumulative %" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>D5/$C$15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2439,31 +2481,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2481,7 +2523,7 @@
         <f>SUM($C$5:C5)</f>
         <v>5616526.6799999997</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E14" si="0">D5/$C$15</f>
         <v>0.11206079707568282</v>
       </c>
@@ -2500,7 +2542,7 @@
         <f>SUM($C$5:C6)</f>
         <v>10998064.550000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>0.21943310340739114</v>
       </c>
@@ -2519,7 +2561,7 @@
         <f>SUM($C$5:C7)</f>
         <v>16349429.060000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>0.32620339162991957</v>
       </c>
@@ -2538,7 +2580,7 @@
         <f>SUM($C$5:C8)</f>
         <v>21421079.170000002</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>0.42739282527747324</v>
       </c>
@@ -2557,7 +2599,7 @@
         <f>SUM($C$5:C9)</f>
         <v>26467302.060000002</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0.52807493568008168</v>
       </c>
@@ -2576,7 +2618,7 @@
         <f>SUM($C$5:C10)</f>
         <v>31418808.590000004</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0.62686726768361245</v>
       </c>
@@ -2595,7 +2637,7 @@
         <f>SUM($C$5:C11)</f>
         <v>36308586.700000003</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0.72442799582562245</v>
       </c>
@@ -2614,7 +2656,7 @@
         <f>SUM($C$5:C12)</f>
         <v>40982558.380000003</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0.81768295958019122</v>
       </c>
@@ -2633,7 +2675,7 @@
         <f>SUM($C$5:C13)</f>
         <v>45589253.140000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0.90959561594274785</v>
       </c>
@@ -2652,7 +2694,7 @@
         <f>SUM($C$5:C14)</f>
         <v>50120352.759999998</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
